--- a/train_tools/qna/train_data.xlsx
+++ b/train_tools/qna/train_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25803"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365duksung-my.sharepoint.com/personal/serim14_office_duksung_ac_kr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1270B9CD-CFB1-44CB-B0A4-816F2AB0DB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D159ED86-D339-4E66-822B-9C6EF0CD037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="281">
   <si>
     <t>의도(Intent)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,30 +98,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한국의 자랑!! 오늘은 한식 어떠세요?</t>
-  </si>
-  <si>
-    <t>쌈에 부드러운 고기와 김치를 싸먹으면 크…. 오늘은 보쌈어떠세요?</t>
-  </si>
-  <si>
-    <t>최고의 가성비 음식! 보쌈정식 어떠세요?</t>
-  </si>
-  <si>
-    <t>고추장 양념에 닭한마리를 넣어서 보글보글 끓여먹는 닭볶음탕 어떠세요?</t>
-  </si>
-  <si>
-    <t>고추장 양념에 닭한마리를 넣어서 보글보글 끓여먹는 닭도리탕 어떠세요?</t>
-  </si>
-  <si>
-    <t>갖가지 채소에 고기와 밥을 넣어서 한쌈 크게 싸서 먹는 쌈밥 어떠세요?!</t>
-  </si>
-  <si>
-    <t>제육볶음을 추천해드리고 싶네요 ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리주물럭이 땡기는데요? ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>오늘은 든든하게 한식 추천드려요!</t>
+  </si>
+  <si>
+    <t>오늘은 따끈한~일식은 어떨까요?</t>
+  </si>
+  <si>
+    <t>중식은 어때요? 제가 중식 맛집 아는데!</t>
+  </si>
+  <si>
+    <t>양식 추천드려요! 파스타 돌돌돌~~</t>
+  </si>
+  <si>
+    <t>수업과 과제로 지친 마음...추어탕으로 원기 충전해보세요!</t>
+  </si>
+  <si>
+    <t>매콤한! 낙지볶음으로 스트레스도 날려보시는 건 어떤가요!</t>
+  </si>
+  <si>
+    <t>이번에는 족발을 추천드리고 싶군요!</t>
+  </si>
+  <si>
+    <t>저는 치킨이 땡기는걸요~!~!</t>
   </si>
   <si>
     <t>한국인이면 된장찌개죠!!</t>
@@ -129,84 +127,70 @@
   </si>
   <si>
     <t>한국인이라면 김치찌개죠!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해장하시고 싶으시면 북어국이 최고에요!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갈치조림 어떠세요?</t>
-  </si>
-  <si>
-    <t>하루 종일 든든~한 순대국 추천드려요~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제대로 먹으려면 부대찌개에 밥 한공기 뚝딱해야죠!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음식메뉴가 너무 고민되면 그냥 밴반으로 갑시다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숯불에 구워 더 맛있는 숯불갈비 어떠세요? ㅎㅎ</t>
+  </si>
+  <si>
+    <t>해장하시고 싶으시면 국밥이 최고에요!!</t>
+  </si>
+  <si>
+    <t>보쌈은 어떠세요?</t>
+  </si>
+  <si>
+    <t>하루 종일 든든~한 감자탕 추천드려요~</t>
+  </si>
+  <si>
+    <t>제대로 먹으려면 국밥 한사발 하시죠~!</t>
+  </si>
+  <si>
+    <t>제육볶음으로 갑시다!</t>
+  </si>
+  <si>
+    <t>짜장면에 군만두로 고고?</t>
   </si>
   <si>
     <t>냉면 어떠세요? 물냉? 비냉? 취향것 드세요!</t>
   </si>
   <si>
-    <t>저는 칼국수가 땡깁니다…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수제비국으로 든든하게 배 채웁시다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진~한 사골육수에 만두넣고 끓인 만두국 추천드려요~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔칫날엔 잔치국수죠!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤한 양념에 비벼먹는 비빔국수 추천합니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우아~하게 양식으로 갑시다~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>얼~크은한 짬뽕 한 그릇 추천드리고 싶어요!</t>
+  </si>
+  <si>
+    <t>쫄깃쫄깃 떡볶이에 튀김 한조각 찍어먹는 건 어때요??</t>
+  </si>
+  <si>
+    <t>지친 마음을 달래줄 삼계탕! 뜨끈하게 드시러 가시죠~!</t>
+  </si>
+  <si>
+    <t>덕성여대의 자랑! 부리또 먹으러 가시죠!!!</t>
+  </si>
+  <si>
+    <t>간단하게 카페에서 해결해보는 건 어때요??</t>
+  </si>
+  <si>
+    <t>제가 또 덕성여대에 유명한 쌀국수 맛집을 아는데...추천해드릴까요?</t>
   </si>
   <si>
     <t>양식의 대표주자 파스타 어떠세요?</t>
   </si>
   <si>
-    <t>양식의 대표주자 스파게티 어떠세요?</t>
-  </si>
-  <si>
-    <t>친구들과 나눠먹고싶을땐 피자가 최고죠!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생소하지만 간단하게 먹기에는 최고의 음식! 치아바타 어떠세요?</t>
-  </si>
-  <si>
-    <t>스테이크를 썰고 싶군요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철판과 공기에 밥을 볶으면 그렇게 맛있대요! 철판볶음밥 추천드려요! ㅎㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>막창….막창 먹어주세요 막창….</t>
+  </si>
+  <si>
+    <t>곱창에 쏘주 한잔 어때요??? 진짜 맛있을 것 같은데!</t>
+  </si>
+  <si>
+    <t>배도 고픈데 고기집 함 가서 든든하게 먹고 오시죠!</t>
+  </si>
+  <si>
+    <t>따끈따끈~한 따코야끼..! 아니 타코야끼사먹는 건 어때요?</t>
+  </si>
+  <si>
+    <t>고민될 때는 역시 치킨에 맥주한잔 드시죠!</t>
   </si>
   <si>
     <t>고민될 땐 중식 아닙니까~?!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>양꼬치 어떠세요? 양고기의 특유의 향에 빠져버려요…</t>
+    <t>보양식 백숙먹고 기운차려보죠!!</t>
   </si>
   <si>
     <t>중식 대표는 짜장면, 짬뽕이죠! 둘 중엔 알아서 고르시길…</t>
@@ -322,18 +306,30 @@
     <t>https://place.map.kakao.com/13309306</t>
   </si>
   <si>
+    <t>막국수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{B_FOOD} 맛집을 검색합니다. 대가집 어떠세요?</t>
   </si>
   <si>
     <t>https://place.map.kakao.com/778495665</t>
   </si>
   <si>
+    <t>감자탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{B_FOOD} 맛집을 검색합니다. 도레미즉석떡볶이 어떠세요?</t>
   </si>
   <si>
     <t>https://place.map.kakao.com/16904785</t>
   </si>
   <si>
+    <t>떡볶이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>B_FOOD</t>
   </si>
   <si>
@@ -343,306 +339,333 @@
     <t>https://place.map.kakao.com/20546744</t>
   </si>
   <si>
+    <t>제육볶음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>된장찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이커리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 히피스베이글 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/1491906521</t>
+  </si>
+  <si>
+    <t>중식</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다.  황금성 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/27467712</t>
+  </si>
+  <si>
+    <t>짜장면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짬뽕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 대보명가 서울본점 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/13025948</t>
+  </si>
+  <si>
     <t>카페</t>
   </si>
   <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 히피스베이글 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/1491906521</t>
+    <t>{B_FOOD} 맛집을 검색합니다. 카페멘디 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/394644903</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 이설함흥냉면 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/17217552</t>
+  </si>
+  <si>
+    <t>냉면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 엄마손기사님식당 수유본점 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/16648562</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 시골농장 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/15394790</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 섬진강1984 민물장어 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/8379636</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 능이버섯백숙 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/11008313</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 샘터마루 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/8362137</t>
+  </si>
+  <si>
+    <t>한식</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 석가갈비냉면 수유점 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/20558459</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 홍가네 가마솥설렁탕 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/1831183103</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 쎄쎄 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/10599081</t>
+  </si>
+  <si>
+    <t>양식</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. KFC 우이동점 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/8024067</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 예와손만두 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/11970526</t>
+  </si>
+  <si>
+    <t>만두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 돈돈 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/1966230027</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 방일해장국 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/22182925</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 해촌샤브샤브 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/19159107</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 사리원돼지국밥 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/6766569</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 노르웨이안우드 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/1305533873</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 곰보냉면 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/16301895</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 풍천민물장어 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/14520688</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 우이동주막집 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/1557943905</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 마포감자국 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/21331203</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 라티스 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/1168932090</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 카페비르케 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/428271652</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 다정도병인양 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/856213664</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 탐앤탐스 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/1770937390</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 산책 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/16376913</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 엘수에뇨 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/722569390</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 서당골 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/1067901640</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 착한낙지 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/17491501</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 스푼앤포크키친 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/1179477268</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 콩블랑제리 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/385073691</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 궁전회관 어떠세요?</t>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/16085801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 블랙다운 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/902454476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 원조왕십리곱창전문 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/16083956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 아띠랑스 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/1363689657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 진송추어탕 서울본점 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/1176869591</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 본죽&amp;비빔밥cafe 덕성여대점 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/672117412</t>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 돼지저금통 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/27416975</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 써브웨이 덕성여대점 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/959529341</t>
   </si>
   <si>
     <t>중식</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다.  황금성 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/27467712</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 대보명가 서울본점 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/13025948</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 카페멘디 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/394644903</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 이설함흥냉면 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/17217552</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 엄마손기사님식당 수유본점 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/16648562</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 시골농장 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/15394790</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 섬진강1984 민물장어 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/8379636</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 능이버섯백숙 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/11008313</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 샘터마루 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/8362137</t>
-  </si>
-  <si>
-    <t>한식</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 석가갈비냉면 수유점 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/20558459</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 홍가네 가마솥설렁탕 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/1831183103</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 쎄쎄 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/10599081</t>
-  </si>
-  <si>
-    <t>양식</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. KFC 우이동점 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/8024067</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 예와손만두 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/11970526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 맛집을 검색합니다. 차우린해물짬뽕 수유점 어떠세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://place.map.kakao.com/1946523185</t>
   </si>
   <si>
     <t>일식</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 돈돈 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/1966230027</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 방일해장국 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/22182925</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 해촌샤브샤브 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/19159107</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 사리원돼지국밥 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/6766569</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 노르웨이안우드 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/1305533873</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 곰보냉면 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/16301895</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 풍천민물장어 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/14520688</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 우이동주막집 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/1557943905</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 마포감자국 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/21331203</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 라티스 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/1168932090</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 카페비르케 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/428271652</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 다정도병인양 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/856213664</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 탐앤탐스 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/1770937390</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 산책 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/16376913</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 엘수에뇨 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/722569390</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 서당골 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/1067901640</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 착한낙지 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/17491501</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 스푼앤포크키친 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/1179477268</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 콩블랑제리 어떠세요?</t>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/385073691</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 궁전화관 어떠세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/16085801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 블랙다운 어떠세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/902454476</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 원조왕십리곱창전문 어떠세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/16083956</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 아띠랑스 어떠세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/1363689657</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 진송추어탕 서울본점 어떠세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/1176869591</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 본죽&amp;비빔밥cafe 덕성여대점 어떠세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/672117412</t>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 돼지저금통 어떠세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/27416975</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 써브웨이 덕성여대점 어떠세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/959529341</t>
-  </si>
-  <si>
-    <t>중식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 맛집을 검색합니다. 차우린해물짬뽕 수유점 어떠세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://place.map.kakao.com/1946523185</t>
-  </si>
-  <si>
-    <t>일식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -849,6 +872,81 @@
   </si>
   <si>
     <t>https://place.map.kakao.com/122125097</t>
+  </si>
+  <si>
+    <t>짜장면</t>
+  </si>
+  <si>
+    <t>백숙</t>
+  </si>
+  <si>
+    <t>삼계탕</t>
+  </si>
+  <si>
+    <t>간식</t>
+  </si>
+  <si>
+    <t>햄버거</t>
+  </si>
+  <si>
+    <t>패스트푸드</t>
+  </si>
+  <si>
+    <t>낙지볶음</t>
+  </si>
+  <si>
+    <t>쌀국수</t>
+  </si>
+  <si>
+    <t>수제비</t>
+  </si>
+  <si>
+    <t>비빔밥</t>
+  </si>
+  <si>
+    <t>짬뽕</t>
+  </si>
+  <si>
+    <t>샐러드</t>
+  </si>
+  <si>
+    <t>샌드위치</t>
+  </si>
+  <si>
+    <t>곱창</t>
+  </si>
+  <si>
+    <t>김치찌개</t>
+  </si>
+  <si>
+    <t>추어탕</t>
+  </si>
+  <si>
+    <t>파스타</t>
+  </si>
+  <si>
+    <t>부리또</t>
+  </si>
+  <si>
+    <t>코다리 정식</t>
+  </si>
+  <si>
+    <t>불백</t>
+  </si>
+  <si>
+    <t>알밥</t>
+  </si>
+  <si>
+    <t>감자탕</t>
+  </si>
+  <si>
+    <t>족발</t>
+  </si>
+  <si>
+    <t>보쌈</t>
+  </si>
+  <si>
+    <t>냉면</t>
   </si>
   <si>
     <t>기타</t>
@@ -862,7 +960,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -900,17 +998,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -960,7 +1052,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,9 +1078,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4CC4D-BBB6-C948-A332-3C0CB96286D0}">
-  <dimension ref="A1:E271"/>
+  <dimension ref="A1:E281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="19.149999999999999"/>
@@ -1338,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="35.25">
+    <row r="2" spans="1:5" ht="38.450000000000003">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1349,7 +1438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25">
+    <row r="3" spans="1:5" ht="38.450000000000003">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="35.25">
+    <row r="5" spans="1:5" ht="38.450000000000003">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1382,7 +1471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="35.25">
+    <row r="6" spans="1:5" ht="38.450000000000003">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1415,7 +1504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="38.450000000000003">
+    <row r="9" spans="1:5" ht="35.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1426,7 +1515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="57.6">
+    <row r="10" spans="1:5" ht="35.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1437,7 +1526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="38.450000000000003">
+    <row r="11" spans="1:5" ht="35.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1448,7 +1537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="57.6">
+    <row r="12" spans="1:5" ht="35.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1459,7 +1548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="57.6">
+    <row r="13" spans="1:5" ht="35.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1470,7 +1559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="57.6">
+    <row r="14" spans="1:5" ht="52.5">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1481,7 +1570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="38.450000000000003">
+    <row r="15" spans="1:5" ht="35.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1492,7 +1581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="38.450000000000003">
+    <row r="16" spans="1:5" ht="17.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1514,7 +1603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="17.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1525,7 +1614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="38.450000000000003">
+    <row r="19" spans="1:5" ht="35.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1536,7 +1625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="17.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +1636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="38.450000000000003">
+    <row r="21" spans="1:5" ht="35.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1558,7 +1647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="38.450000000000003">
+    <row r="22" spans="1:5" ht="35.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1569,7 +1658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="38.450000000000003">
+    <row r="23" spans="1:5" ht="17.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1580,7 +1669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="38.450000000000003">
+    <row r="24" spans="1:5" ht="17.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1602,7 +1691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="35.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1613,7 +1702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="38.450000000000003">
+    <row r="27" spans="1:5" ht="35.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1624,7 +1713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="38.450000000000003">
+    <row r="28" spans="1:5" ht="35.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1635,7 +1724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="35.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1646,7 +1735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="38.450000000000003">
+    <row r="30" spans="1:5" ht="35.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1657,7 +1746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="38.450000000000003">
+    <row r="31" spans="1:5" ht="52.5">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1679,7 +1768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="38.450000000000003">
+    <row r="33" spans="1:5" ht="35.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1690,7 +1779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="38.450000000000003">
+    <row r="34" spans="1:5" ht="35.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1701,7 +1790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="57.6">
+    <row r="35" spans="1:5" ht="35.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1712,7 +1801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="35.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1723,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="57.6">
+    <row r="37" spans="1:5" ht="35.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1745,7 +1834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="38.450000000000003">
+    <row r="39" spans="1:5" ht="35.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -2015,7 +2104,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="35.25">
+    <row r="64" spans="1:5" ht="38.450000000000003">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -2032,7 +2121,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="35.25">
+    <row r="65" spans="1:5" ht="38.450000000000003">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2040,16 +2129,16 @@
         <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="52.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="38.450000000000003">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -2060,183 +2149,183 @@
         <v>74</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="4" t="s">
+    </row>
+    <row r="67" spans="1:5" ht="38.450000000000003">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="35.25">
-      <c r="A67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="D67" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="57.6">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C67" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="E68" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E67" s="4" t="s">
+    </row>
+    <row r="69" spans="1:5" ht="57.6">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="35.25">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="D69" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="35.25">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E69" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="52.5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="38.450000000000003">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="38.450000000000003">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="38.450000000000003">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="38.450000000000003">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E73" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="35.25">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" s="2" t="s">
+    <row r="74" spans="1:5" ht="38.450000000000003">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="D74" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="35.25">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" t="s">
-        <v>74</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="E74" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="5" t="s">
+    </row>
+    <row r="75" spans="1:5" ht="38.450000000000003">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="52.5">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="D75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="38.450000000000003">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="35.25">
-      <c r="A74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" t="s">
-        <v>74</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="52.5">
-      <c r="A75" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="35.25">
-      <c r="A76" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" t="s">
-        <v>74</v>
-      </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="35.25">
+        <v>93</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="57.6">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -2247,588 +2336,588 @@
         <v>74</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="38.450000000000003">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="38.450000000000003">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="38.450000000000003">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" t="s">
         <v>104</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="D80" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="57.6">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="52.5">
-      <c r="A78" t="s">
-        <v>71</v>
-      </c>
-      <c r="B78" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="E81" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D78" s="2" t="s">
+    </row>
+    <row r="82" spans="1:5" ht="38.450000000000003">
+      <c r="A82" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E82" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="52.5">
-      <c r="A79" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79" s="2" t="s">
+    <row r="83" spans="1:5" ht="57.6">
+      <c r="A83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="35.25">
-      <c r="A80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" s="2" t="s">
+    <row r="84" spans="1:5" ht="38.450000000000003">
+      <c r="A84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="35.25">
-      <c r="A81" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" t="s">
+    <row r="85" spans="1:5" ht="38.450000000000003">
+      <c r="A85" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E85" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E81" s="5" t="s">
+    </row>
+    <row r="86" spans="1:5" ht="57.6">
+      <c r="A86" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="35.25">
-      <c r="A82" t="s">
-        <v>71</v>
-      </c>
-      <c r="B82" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="35.25">
-      <c r="A83" t="s">
-        <v>71</v>
-      </c>
-      <c r="B83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" t="s">
+    <row r="87" spans="1:5" ht="57.6">
+      <c r="A87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E87" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E83" s="5" t="s">
+    </row>
+    <row r="88" spans="1:5" ht="38.450000000000003">
+      <c r="A88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="35.25">
-      <c r="A84" t="s">
-        <v>71</v>
-      </c>
-      <c r="B84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" t="s">
-        <v>106</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="E88" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E84" s="5" t="s">
+    </row>
+    <row r="89" spans="1:5" ht="38.450000000000003">
+      <c r="A89" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="38.450000000000003">
+      <c r="A90" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="35.25">
-      <c r="A85" t="s">
-        <v>71</v>
-      </c>
-      <c r="B85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E90" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="52.5">
-      <c r="A86" t="s">
-        <v>71</v>
-      </c>
-      <c r="B86" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" t="s">
-        <v>106</v>
-      </c>
-      <c r="D86" s="2" t="s">
+    <row r="91" spans="1:5" ht="38.450000000000003">
+      <c r="A91" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E91" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="52.5">
-      <c r="A87" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" t="s">
-        <v>73</v>
-      </c>
-      <c r="C87" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="2" t="s">
+    <row r="92" spans="1:5" ht="38.450000000000003">
+      <c r="A92" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" t="s">
         <v>127</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="D92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="38.450000000000003">
+      <c r="A93" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="35.25">
-      <c r="A88" t="s">
-        <v>71</v>
-      </c>
-      <c r="B88" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" t="s">
-        <v>106</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E93" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="35.25">
-      <c r="A89" t="s">
-        <v>71</v>
-      </c>
-      <c r="B89" t="s">
-        <v>73</v>
-      </c>
-      <c r="C89" t="s">
-        <v>106</v>
-      </c>
-      <c r="D89" s="2" t="s">
+    <row r="94" spans="1:5" ht="38.450000000000003">
+      <c r="A94" t="s">
+        <v>71</v>
+      </c>
+      <c r="B94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="35.25">
-      <c r="A90" t="s">
-        <v>71</v>
-      </c>
-      <c r="B90" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" t="s">
-        <v>106</v>
-      </c>
-      <c r="D90" s="2" t="s">
+    <row r="95" spans="1:5" ht="38.450000000000003">
+      <c r="A95" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="35.25">
-      <c r="A91" t="s">
-        <v>71</v>
-      </c>
-      <c r="B91" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91" t="s">
-        <v>106</v>
-      </c>
-      <c r="D91" s="2" t="s">
+    <row r="96" spans="1:5" ht="57.6">
+      <c r="A96" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E96" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="35.25">
-      <c r="A92" t="s">
-        <v>71</v>
-      </c>
-      <c r="B92" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" s="2" t="s">
+    <row r="97" spans="1:5" ht="57.6">
+      <c r="A97" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E97" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="35.25">
-      <c r="A93" t="s">
-        <v>71</v>
-      </c>
-      <c r="B93" t="s">
-        <v>73</v>
-      </c>
-      <c r="C93" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" s="2" t="s">
+    <row r="98" spans="1:5" ht="38.450000000000003">
+      <c r="A98" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="35.25">
-      <c r="A94" t="s">
-        <v>71</v>
-      </c>
-      <c r="B94" t="s">
-        <v>73</v>
-      </c>
-      <c r="C94" t="s">
-        <v>84</v>
-      </c>
-      <c r="D94" s="2" t="s">
+    <row r="99" spans="1:5" ht="38.450000000000003">
+      <c r="A99" t="s">
+        <v>71</v>
+      </c>
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E99" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="35.25">
-      <c r="A95" t="s">
-        <v>71</v>
-      </c>
-      <c r="B95" t="s">
-        <v>73</v>
-      </c>
-      <c r="C95" t="s">
-        <v>84</v>
-      </c>
-      <c r="D95" s="2" t="s">
+    <row r="100" spans="1:5" ht="38.450000000000003">
+      <c r="A100" t="s">
+        <v>71</v>
+      </c>
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E100" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="35.25">
-      <c r="A96" t="s">
-        <v>71</v>
-      </c>
-      <c r="B96" t="s">
-        <v>81</v>
-      </c>
-      <c r="C96" t="s">
-        <v>118</v>
-      </c>
-      <c r="D96" s="2" t="s">
+    <row r="101" spans="1:5" ht="38.450000000000003">
+      <c r="A101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="35.25">
-      <c r="A97" t="s">
-        <v>71</v>
-      </c>
-      <c r="B97" t="s">
-        <v>81</v>
-      </c>
-      <c r="C97" t="s">
-        <v>113</v>
-      </c>
-      <c r="D97" s="2" t="s">
+    <row r="102" spans="1:5" ht="38.450000000000003">
+      <c r="A102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" t="s">
+        <v>99</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E102" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="35.25">
-      <c r="A98" t="s">
-        <v>71</v>
-      </c>
-      <c r="B98" t="s">
-        <v>81</v>
-      </c>
-      <c r="C98" t="s">
-        <v>106</v>
-      </c>
-      <c r="D98" s="2" t="s">
+    <row r="103" spans="1:5" ht="38.450000000000003">
+      <c r="A103" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E103" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="35.25">
-      <c r="A99" t="s">
-        <v>71</v>
-      </c>
-      <c r="B99" t="s">
-        <v>73</v>
-      </c>
-      <c r="C99" t="s">
-        <v>106</v>
-      </c>
-      <c r="D99" s="2" t="s">
+    <row r="104" spans="1:5" ht="38.450000000000003">
+      <c r="A104" t="s">
+        <v>71</v>
+      </c>
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E104" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="52.5">
-      <c r="A100" t="s">
-        <v>71</v>
-      </c>
-      <c r="B100" t="s">
-        <v>73</v>
-      </c>
-      <c r="C100" t="s">
-        <v>113</v>
-      </c>
-      <c r="D100" s="2" t="s">
+    <row r="105" spans="1:5" ht="38.450000000000003">
+      <c r="A105" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="35.25">
-      <c r="A101" t="s">
-        <v>71</v>
-      </c>
-      <c r="B101" t="s">
-        <v>73</v>
-      </c>
-      <c r="C101" t="s">
-        <v>84</v>
-      </c>
-      <c r="D101" s="2" t="s">
+    <row r="106" spans="1:5" ht="38.450000000000003">
+      <c r="A106" t="s">
+        <v>71</v>
+      </c>
+      <c r="B106" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" t="s">
+        <v>128</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E106" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="35.25">
-      <c r="A102" t="s">
-        <v>71</v>
-      </c>
-      <c r="B102" t="s">
-        <v>73</v>
-      </c>
-      <c r="C102" t="s">
-        <v>74</v>
-      </c>
-      <c r="D102" s="2" t="s">
+    <row r="107" spans="1:5" ht="38.450000000000003">
+      <c r="A107" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107" t="s">
+        <v>84</v>
+      </c>
+      <c r="C107" t="s">
+        <v>122</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E107" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="35.25">
-      <c r="A103" t="s">
-        <v>71</v>
-      </c>
-      <c r="B103" t="s">
-        <v>73</v>
-      </c>
-      <c r="C103" t="s">
+    <row r="108" spans="1:5" ht="38.450000000000003">
+      <c r="A108" t="s">
+        <v>71</v>
+      </c>
+      <c r="B108" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" t="s">
+        <v>115</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E108" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E103" s="4" t="s">
+    </row>
+    <row r="109" spans="1:5" ht="38.450000000000003">
+      <c r="A109" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="52.5">
-      <c r="A104" t="s">
-        <v>71</v>
-      </c>
-      <c r="B104" t="s">
-        <v>73</v>
-      </c>
-      <c r="C104" t="s">
-        <v>74</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E109" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E104" s="4" t="s">
+    </row>
+    <row r="110" spans="1:5" ht="57.6">
+      <c r="A110" t="s">
+        <v>71</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110" t="s">
+        <v>122</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="35.25">
-      <c r="A105" t="s">
-        <v>71</v>
-      </c>
-      <c r="B105" t="s">
-        <v>73</v>
-      </c>
-      <c r="C105" t="s">
-        <v>159</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="E110" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E105" s="4" t="s">
+    </row>
+    <row r="111" spans="1:5" ht="38.450000000000003">
+      <c r="A111" t="s">
+        <v>71</v>
+      </c>
+      <c r="B111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C111" t="s">
+        <v>99</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="52.5">
-      <c r="A106" t="s">
-        <v>71</v>
-      </c>
-      <c r="B106" t="s">
-        <v>73</v>
-      </c>
-      <c r="C106" t="s">
-        <v>74</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="E111" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="E106" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="52.5">
-      <c r="A107" t="s">
-        <v>71</v>
-      </c>
-      <c r="B107" t="s">
-        <v>73</v>
-      </c>
-      <c r="C107" t="s">
-        <v>74</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E107" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="35.25">
-      <c r="A108" t="s">
-        <v>71</v>
-      </c>
-      <c r="B108" t="s">
-        <v>73</v>
-      </c>
-      <c r="C108" t="s">
-        <v>74</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="52.5">
-      <c r="A109" t="s">
-        <v>71</v>
-      </c>
-      <c r="B109" t="s">
-        <v>73</v>
-      </c>
-      <c r="C109" t="s">
-        <v>172</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E109" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="52.5">
-      <c r="A110" t="s">
-        <v>71</v>
-      </c>
-      <c r="B110" t="s">
-        <v>73</v>
-      </c>
-      <c r="C110" t="s">
-        <v>175</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E110" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="35.25">
-      <c r="A111" t="s">
-        <v>71</v>
-      </c>
-      <c r="B111" t="s">
-        <v>73</v>
-      </c>
-      <c r="C111" t="s">
-        <v>178</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E111" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="35.25">
@@ -2842,13 +2931,13 @@
         <v>74</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E112" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="52.5">
+        <v>167</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="38.450000000000003">
       <c r="A113" t="s">
         <v>71</v>
       </c>
@@ -2856,16 +2945,16 @@
         <v>73</v>
       </c>
       <c r="C113" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E113" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="35.25">
+        <v>170</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="57.6">
       <c r="A114" t="s">
         <v>71</v>
       </c>
@@ -2876,13 +2965,13 @@
         <v>74</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E114" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="52.5">
+        <v>172</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="38.450000000000003">
       <c r="A115" t="s">
         <v>71</v>
       </c>
@@ -2890,16 +2979,16 @@
         <v>73</v>
       </c>
       <c r="C115" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E115" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="52.5">
+        <v>174</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="57.6">
       <c r="A116" t="s">
         <v>71</v>
       </c>
@@ -2910,13 +2999,13 @@
         <v>74</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E116" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="35.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="57.6">
       <c r="A117" t="s">
         <v>71</v>
       </c>
@@ -2927,613 +3016,1264 @@
         <v>74</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E117" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="38.450000000000003">
+      <c r="A118" t="s">
+        <v>71</v>
+      </c>
+      <c r="B118" t="s">
+        <v>73</v>
+      </c>
+      <c r="C118" t="s">
+        <v>74</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="57.6">
+      <c r="A119" t="s">
+        <v>71</v>
+      </c>
+      <c r="B119" t="s">
+        <v>73</v>
+      </c>
+      <c r="C119" t="s">
+        <v>182</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E119" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="57.6">
+      <c r="A120" t="s">
+        <v>71</v>
+      </c>
+      <c r="B120" t="s">
+        <v>73</v>
+      </c>
+      <c r="C120" t="s">
+        <v>185</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E120" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="38.450000000000003">
+      <c r="A121" t="s">
+        <v>71</v>
+      </c>
+      <c r="B121" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" t="s">
+        <v>188</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E121" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="38.450000000000003">
+      <c r="A122" t="s">
+        <v>71</v>
+      </c>
+      <c r="B122" t="s">
+        <v>73</v>
+      </c>
+      <c r="C122" t="s">
+        <v>74</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E122" t="s">
         <v>192</v>
       </c>
-      <c r="E117" t="s">
+    </row>
+    <row r="123" spans="1:5" ht="57.6">
+      <c r="A123" t="s">
+        <v>71</v>
+      </c>
+      <c r="B123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C123" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="52.5">
-      <c r="A118" t="s">
-        <v>71</v>
-      </c>
-      <c r="B118" t="s">
-        <v>73</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="E123" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="38.450000000000003">
+      <c r="A124" t="s">
+        <v>71</v>
+      </c>
+      <c r="B124" t="s">
+        <v>73</v>
+      </c>
+      <c r="C124" t="s">
+        <v>74</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E124" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="57.6">
+      <c r="A125" t="s">
+        <v>71</v>
+      </c>
+      <c r="B125" t="s">
+        <v>73</v>
+      </c>
+      <c r="C125" t="s">
+        <v>197</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E125" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="57.6">
+      <c r="A126" t="s">
+        <v>71</v>
+      </c>
+      <c r="B126" t="s">
+        <v>73</v>
+      </c>
+      <c r="C126" t="s">
+        <v>74</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E126" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="38.450000000000003">
+      <c r="A127" t="s">
+        <v>71</v>
+      </c>
+      <c r="B127" t="s">
+        <v>73</v>
+      </c>
+      <c r="C127" t="s">
+        <v>74</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E127" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="57.6">
+      <c r="A128" t="s">
+        <v>71</v>
+      </c>
+      <c r="B128" t="s">
+        <v>73</v>
+      </c>
+      <c r="C128" t="s">
+        <v>182</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E128" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="57.6">
+      <c r="A129" t="s">
+        <v>71</v>
+      </c>
+      <c r="B129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129" t="s">
+        <v>169</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E129" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="38.450000000000003">
+      <c r="A130" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="38.450000000000003">
+      <c r="A131" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="38.450000000000003">
+      <c r="A132" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="38.450000000000003">
+      <c r="A133" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="57.6">
+      <c r="A134" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="57.6">
+      <c r="A135" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="57.6">
+      <c r="A136" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="57.6">
+      <c r="A137" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="57.6">
+      <c r="A138" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="57.6">
+      <c r="A139" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="38.450000000000003">
+      <c r="A140" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="38.450000000000003">
+      <c r="A141" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="38.450000000000003">
+      <c r="A142" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="38.450000000000003">
+      <c r="A143" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="38.450000000000003">
+      <c r="A144" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="38.450000000000003">
+      <c r="A145" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="38.450000000000003">
+      <c r="A146" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="38.450000000000003">
+      <c r="A147" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="38.450000000000003">
+      <c r="A148" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="38.450000000000003">
+      <c r="A149" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="38.450000000000003">
+      <c r="A150" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="38.450000000000003">
+      <c r="A151" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="38.450000000000003">
+      <c r="A152" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="38.450000000000003">
+      <c r="A153" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="35.25">
+      <c r="A154" t="s">
+        <v>71</v>
+      </c>
+      <c r="B154" t="s">
+        <v>84</v>
+      </c>
+      <c r="C154" t="s">
+        <v>254</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="35.25">
+      <c r="A155" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="35.25">
+      <c r="A156" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="52.5">
+      <c r="A157" t="s">
+        <v>71</v>
+      </c>
+      <c r="B157" t="s">
+        <v>73</v>
+      </c>
+      <c r="C157" t="s">
+        <v>257</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E157" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="52.5">
+      <c r="A158" t="s">
+        <v>71</v>
+      </c>
+      <c r="B158" t="s">
+        <v>73</v>
+      </c>
+      <c r="C158" t="s">
+        <v>258</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E158" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="52.5">
+      <c r="A159" t="s">
+        <v>71</v>
+      </c>
+      <c r="B159" t="s">
+        <v>73</v>
+      </c>
+      <c r="C159" t="s">
+        <v>259</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E159" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="35.25">
+      <c r="A160" t="s">
+        <v>71</v>
+      </c>
+      <c r="B160" t="s">
+        <v>73</v>
+      </c>
+      <c r="C160" t="s">
+        <v>260</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E160" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="52.5">
+      <c r="A161" t="s">
+        <v>71</v>
+      </c>
+      <c r="B161" t="s">
+        <v>73</v>
+      </c>
+      <c r="C161" t="s">
+        <v>261</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E161" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="52.5">
+      <c r="A162" t="s">
+        <v>71</v>
+      </c>
+      <c r="B162" t="s">
+        <v>73</v>
+      </c>
+      <c r="C162" t="s">
+        <v>244</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E162" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="52.5">
+      <c r="A163" t="s">
+        <v>71</v>
+      </c>
+      <c r="B163" t="s">
+        <v>73</v>
+      </c>
+      <c r="C163" t="s">
+        <v>262</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E163" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="35.25">
+      <c r="A164" t="s">
+        <v>71</v>
+      </c>
+      <c r="B164" t="s">
+        <v>73</v>
+      </c>
+      <c r="C164" t="s">
+        <v>263</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E164" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="52.5">
+      <c r="A165" t="s">
+        <v>71</v>
+      </c>
+      <c r="B165" t="s">
+        <v>73</v>
+      </c>
+      <c r="C165" t="s">
+        <v>254</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E165" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="52.5">
+      <c r="A166" t="s">
+        <v>71</v>
+      </c>
+      <c r="B166" t="s">
+        <v>73</v>
+      </c>
+      <c r="C166" t="s">
+        <v>264</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E166" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="52.5">
+      <c r="A167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B167" t="s">
+        <v>73</v>
+      </c>
+      <c r="C167" t="s">
+        <v>265</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E167" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="52.5">
+      <c r="A168" t="s">
+        <v>71</v>
+      </c>
+      <c r="B168" t="s">
+        <v>73</v>
+      </c>
+      <c r="C168" t="s">
+        <v>266</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E168" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="35.25">
+      <c r="A169" t="s">
+        <v>71</v>
+      </c>
+      <c r="B169" t="s">
+        <v>73</v>
+      </c>
+      <c r="C169" t="s">
+        <v>247</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="52.5">
+      <c r="A170" t="s">
+        <v>71</v>
+      </c>
+      <c r="B170" t="s">
+        <v>73</v>
+      </c>
+      <c r="C170" t="s">
+        <v>263</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E170" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="52.5">
+      <c r="A171" t="s">
+        <v>71</v>
+      </c>
+      <c r="B171" t="s">
+        <v>73</v>
+      </c>
+      <c r="C171" t="s">
+        <v>267</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E118" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="52.5">
-      <c r="A119" t="s">
-        <v>71</v>
-      </c>
-      <c r="B119" t="s">
-        <v>73</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="E171" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="35.25">
+      <c r="A172" t="s">
+        <v>71</v>
+      </c>
+      <c r="B172" t="s">
+        <v>73</v>
+      </c>
+      <c r="C172" t="s">
+        <v>268</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="52.5">
+      <c r="A173" t="s">
+        <v>71</v>
+      </c>
+      <c r="B173" t="s">
+        <v>73</v>
+      </c>
+      <c r="C173" t="s">
+        <v>269</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E173" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="52.5">
+      <c r="A174" t="s">
+        <v>71</v>
+      </c>
+      <c r="B174" t="s">
+        <v>73</v>
+      </c>
+      <c r="C174" t="s">
+        <v>270</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="35.25">
+      <c r="A175" t="s">
+        <v>71</v>
+      </c>
+      <c r="B175" t="s">
+        <v>84</v>
+      </c>
+      <c r="C175" t="s">
+        <v>271</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="35.25">
+      <c r="A176" t="s">
+        <v>71</v>
+      </c>
+      <c r="B176" t="s">
+        <v>84</v>
+      </c>
+      <c r="C176" t="s">
+        <v>260</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E119" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="35.25">
-      <c r="A120" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="35.25">
-      <c r="A121" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="35.25">
-      <c r="A122" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="35.25">
-      <c r="A123" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="52.5">
-      <c r="A124" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="52.5">
-      <c r="A125" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="52.5">
-      <c r="A126" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="52.5">
-      <c r="A127" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="52.5">
-      <c r="A128" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="52.5">
-      <c r="A129" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="35.25">
-      <c r="A130" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="35.25">
-      <c r="A131" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="35.25">
-      <c r="A132" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="35.25">
-      <c r="A133" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="35.25">
-      <c r="A134" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D134" s="7" t="s">
+      <c r="E176" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="35.25">
+      <c r="A177" t="s">
+        <v>71</v>
+      </c>
+      <c r="B177" t="s">
+        <v>84</v>
+      </c>
+      <c r="C177" t="s">
+        <v>272</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="35.25">
+      <c r="A178" t="s">
+        <v>71</v>
+      </c>
+      <c r="B178" t="s">
+        <v>84</v>
+      </c>
+      <c r="C178" t="s">
+        <v>273</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="35.25">
+      <c r="A179" t="s">
+        <v>71</v>
+      </c>
+      <c r="B179" t="s">
+        <v>73</v>
+      </c>
+      <c r="C179" t="s">
+        <v>260</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="35.25">
+      <c r="A180" t="s">
+        <v>71</v>
+      </c>
+      <c r="B180" t="s">
+        <v>84</v>
+      </c>
+      <c r="C180" t="s">
+        <v>274</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="35.25">
+      <c r="A181" t="s">
+        <v>71</v>
+      </c>
+      <c r="B181" t="s">
+        <v>84</v>
+      </c>
+      <c r="C181" t="s">
+        <v>275</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="35.25">
+      <c r="A182" t="s">
+        <v>71</v>
+      </c>
+      <c r="B182" t="s">
+        <v>84</v>
+      </c>
+      <c r="C182" t="s">
+        <v>276</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="35.25">
+      <c r="A183" t="s">
+        <v>71</v>
+      </c>
+      <c r="B183" t="s">
+        <v>84</v>
+      </c>
+      <c r="C183" t="s">
+        <v>277</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="52.5">
+      <c r="A184" t="s">
+        <v>71</v>
+      </c>
+      <c r="B184" t="s">
+        <v>84</v>
+      </c>
+      <c r="C184" t="s">
         <v>227</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="D184" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="35.25">
+      <c r="A185" t="s">
+        <v>71</v>
+      </c>
+      <c r="B185" t="s">
+        <v>73</v>
+      </c>
+      <c r="C185" t="s">
+        <v>278</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="35.25">
+      <c r="A186" t="s">
+        <v>71</v>
+      </c>
+      <c r="B186" t="s">
+        <v>84</v>
+      </c>
+      <c r="C186" t="s">
+        <v>227</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="35.25">
+      <c r="A187" t="s">
+        <v>71</v>
+      </c>
+      <c r="B187" t="s">
+        <v>84</v>
+      </c>
+      <c r="C187" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="35.25">
-      <c r="A135" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="35.25">
-      <c r="A136" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="35.25">
-      <c r="A137" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="35.25">
-      <c r="A138" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="35.25">
-      <c r="A139" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="35.25">
-      <c r="A140" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="35.25">
-      <c r="A141" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="35.25">
-      <c r="A142" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="35.25">
-      <c r="A143" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="35.25">
-      <c r="A144" t="s">
-        <v>244</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="145" spans="4:5" ht="17.25">
-      <c r="D145" s="2"/>
-      <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="4:5" ht="17.25">
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="4:5" ht="17.25">
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="4:5" ht="17.25">
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="4:5" ht="17.25">
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="4:5" ht="17.25">
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="4:5" ht="17.25">
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="4:5" ht="17.25">
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="4:5" ht="17.25">
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="4:5" ht="17.25">
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="4:5" ht="17.25">
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="4:5" ht="17.25">
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="4:5" ht="17.25">
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="4:5" ht="17.25">
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="4:5" ht="17.25">
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="4:5" ht="17.25">
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="4:5" ht="17.25">
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="4:5" ht="17.25">
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="4:5" ht="17.25">
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="4:5" ht="17.25">
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="4:5" ht="17.25">
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="4:5" ht="17.25">
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="4:5" ht="17.25">
-      <c r="D167" s="2"/>
-      <c r="E167" s="3"/>
-    </row>
-    <row r="168" spans="4:5" ht="17.25">
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="4:5" ht="17.25">
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="4:5" ht="17.25">
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="4:5" ht="17.25">
-      <c r="D171" s="2"/>
-    </row>
-    <row r="172" spans="4:5" ht="17.25">
-      <c r="D172" s="2"/>
-      <c r="E172" s="3"/>
-    </row>
-    <row r="173" spans="4:5" ht="17.25">
-      <c r="D173" s="2"/>
-    </row>
-    <row r="174" spans="4:5" ht="17.25">
-      <c r="D174" s="2"/>
-    </row>
-    <row r="175" spans="4:5" ht="17.25">
-      <c r="D175" s="2"/>
-    </row>
-    <row r="176" spans="4:5" ht="17.25">
-      <c r="D176" s="2"/>
-    </row>
-    <row r="177" spans="4:5" ht="17.25">
-      <c r="D177" s="2"/>
-    </row>
-    <row r="178" spans="4:5" ht="17.25">
-      <c r="D178" s="2"/>
-    </row>
-    <row r="179" spans="4:5" ht="17.25">
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="4:5" ht="17.25">
-      <c r="D180" s="2"/>
-    </row>
-    <row r="181" spans="4:5" ht="17.25">
-      <c r="D181" s="2"/>
-    </row>
-    <row r="182" spans="4:5" ht="17.25">
-      <c r="D182" s="2"/>
-    </row>
-    <row r="183" spans="4:5" ht="17.25">
-      <c r="D183" s="2"/>
-    </row>
-    <row r="184" spans="4:5" ht="17.25">
-      <c r="D184" s="2"/>
-    </row>
-    <row r="185" spans="4:5" ht="17.25">
-      <c r="D185" s="2"/>
-    </row>
-    <row r="186" spans="4:5" ht="17.25">
-      <c r="D186" s="2"/>
-    </row>
-    <row r="187" spans="4:5" ht="17.25">
-      <c r="D187" s="2"/>
-    </row>
-    <row r="188" spans="4:5" ht="17.25">
-      <c r="D188" s="2"/>
-    </row>
-    <row r="189" spans="4:5" ht="17.25">
-      <c r="D189" s="2"/>
-    </row>
-    <row r="190" spans="4:5" ht="17.25">
-      <c r="D190" s="2"/>
-    </row>
-    <row r="191" spans="4:5" ht="17.25">
-      <c r="D191" s="2"/>
-      <c r="E191" s="3"/>
-    </row>
-    <row r="192" spans="4:5" ht="17.25">
-      <c r="D192" s="2"/>
-    </row>
+      <c r="D187" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="52.5">
+      <c r="A188" t="s">
+        <v>71</v>
+      </c>
+      <c r="B188" t="s">
+        <v>73</v>
+      </c>
+      <c r="C188" t="s">
+        <v>278</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="35.25">
+      <c r="A189" t="s">
+        <v>71</v>
+      </c>
+      <c r="B189" t="s">
+        <v>84</v>
+      </c>
+      <c r="C189" t="s">
+        <v>247</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="35.25">
+      <c r="A190" t="s">
+        <v>71</v>
+      </c>
+      <c r="B190" t="s">
+        <v>73</v>
+      </c>
+      <c r="C190" t="s">
+        <v>255</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="35.25">
+      <c r="A191" t="s">
+        <v>279</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="17.25"/>
     <row r="193" spans="4:5" ht="17.25">
       <c r="D193" s="2"/>
-      <c r="E193" s="3"/>
     </row>
     <row r="194" spans="4:5" ht="17.25">
       <c r="D194" s="2"/>
@@ -3558,12 +4298,14 @@
     </row>
     <row r="201" spans="4:5" ht="17.25">
       <c r="D201" s="2"/>
+      <c r="E201" s="3"/>
     </row>
     <row r="202" spans="4:5" ht="17.25">
       <c r="D202" s="2"/>
     </row>
     <row r="203" spans="4:5" ht="17.25">
       <c r="D203" s="2"/>
+      <c r="E203" s="3"/>
     </row>
     <row r="204" spans="4:5" ht="17.25">
       <c r="D204" s="2"/>
@@ -3582,17 +4324,14 @@
     </row>
     <row r="209" spans="4:5" ht="17.25">
       <c r="D209" s="2"/>
-      <c r="E209" s="3"/>
     </row>
     <row r="210" spans="4:5" ht="17.25">
       <c r="D210" s="2"/>
     </row>
     <row r="211" spans="4:5" ht="17.25">
-      <c r="E211" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="212" spans="4:5">
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" spans="4:5" ht="17.25">
       <c r="D212" s="2"/>
     </row>
     <row r="213" spans="4:5" ht="17.25">
@@ -3600,48 +4339,51 @@
     </row>
     <row r="214" spans="4:5" ht="17.25">
       <c r="D214" s="2"/>
-      <c r="E214" s="4"/>
-    </row>
-    <row r="215" spans="4:5">
+    </row>
+    <row r="215" spans="4:5" ht="17.25">
       <c r="D215" s="2"/>
     </row>
-    <row r="216" spans="4:5">
+    <row r="216" spans="4:5" ht="17.25">
       <c r="D216" s="2"/>
     </row>
-    <row r="217" spans="4:5">
+    <row r="217" spans="4:5" ht="17.25">
       <c r="D217" s="2"/>
     </row>
-    <row r="218" spans="4:5">
+    <row r="218" spans="4:5" ht="17.25">
       <c r="D218" s="2"/>
     </row>
-    <row r="219" spans="4:5">
+    <row r="219" spans="4:5" ht="17.25">
       <c r="D219" s="2"/>
-    </row>
-    <row r="220" spans="4:5">
+      <c r="E219" s="3"/>
+    </row>
+    <row r="220" spans="4:5" ht="17.25">
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="4:5">
-      <c r="D221" s="2"/>
-    </row>
-    <row r="222" spans="4:5">
+    <row r="221" spans="4:5" ht="17.25">
+      <c r="E221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="4:5" ht="17.25">
       <c r="D222" s="2"/>
     </row>
-    <row r="223" spans="4:5">
+    <row r="223" spans="4:5" ht="17.25">
       <c r="D223" s="2"/>
     </row>
-    <row r="224" spans="4:5">
+    <row r="224" spans="4:5" ht="17.25">
       <c r="D224" s="2"/>
-    </row>
-    <row r="225" spans="4:4">
+      <c r="E224" s="4"/>
+    </row>
+    <row r="225" spans="4:4" ht="17.25">
       <c r="D225" s="2"/>
     </row>
-    <row r="226" spans="4:4">
+    <row r="226" spans="4:4" ht="17.25">
       <c r="D226" s="2"/>
     </row>
-    <row r="227" spans="4:4">
+    <row r="227" spans="4:4" ht="17.25">
       <c r="D227" s="2"/>
     </row>
-    <row r="228" spans="4:4">
+    <row r="228" spans="4:4" ht="17.25">
       <c r="D228" s="2"/>
     </row>
     <row r="229" spans="4:4">
@@ -3772,39 +4514,82 @@
     </row>
     <row r="271" spans="4:4">
       <c r="D271" s="2"/>
+    </row>
+    <row r="272" spans="4:4">
+      <c r="D272" s="2"/>
+    </row>
+    <row r="273" spans="4:4">
+      <c r="D273" s="2"/>
+    </row>
+    <row r="274" spans="4:4">
+      <c r="D274" s="2"/>
+    </row>
+    <row r="275" spans="4:4">
+      <c r="D275" s="2"/>
+    </row>
+    <row r="276" spans="4:4">
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277" spans="4:4">
+      <c r="D277" s="2"/>
+    </row>
+    <row r="278" spans="4:4">
+      <c r="D278" s="2"/>
+    </row>
+    <row r="279" spans="4:4">
+      <c r="D279" s="2"/>
+    </row>
+    <row r="280" spans="4:4">
+      <c r="D280" s="2"/>
+    </row>
+    <row r="281" spans="4:4">
+      <c r="D281" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E64" r:id="rId1" xr:uid="{98006D5A-5742-47E2-BFFC-C1ABDC5E1E84}"/>
-    <hyperlink ref="E65" r:id="rId2" xr:uid="{261F349E-E7C2-458F-968C-1F8196157362}"/>
-    <hyperlink ref="E66" r:id="rId3" xr:uid="{C26419DC-D86F-41C4-A683-C22CBF5906E6}"/>
-    <hyperlink ref="E67" r:id="rId4" xr:uid="{87CBCF8B-3E73-4CBD-85EE-5F318705D18F}"/>
-    <hyperlink ref="E68" r:id="rId5" xr:uid="{5571D6E2-70CB-4EBF-B860-9A9ECDF1312F}"/>
-    <hyperlink ref="E69" r:id="rId6" xr:uid="{15F167E4-4CEB-4441-82E0-15FF6BBFD31B}"/>
-    <hyperlink ref="E104" r:id="rId7" xr:uid="{8BDAA363-F827-428B-B8D6-131309F1B941}"/>
-    <hyperlink ref="E103" r:id="rId8" xr:uid="{5BE382FB-260C-4AC3-8517-4A1F30E6A15D}"/>
-    <hyperlink ref="E102" r:id="rId9" xr:uid="{A8E938AC-18CF-4E97-926C-ACB232C925A4}"/>
-    <hyperlink ref="E105" r:id="rId10" xr:uid="{ECEE958D-C3F4-4F60-85B7-F7071A4C2EF2}"/>
-    <hyperlink ref="E108" r:id="rId11" xr:uid="{2079335D-5610-468B-9944-89EA4A862BFB}"/>
-    <hyperlink ref="E120" r:id="rId12" xr:uid="{2B33FEDD-CC68-4BCF-8E66-C4C3E92F753A}"/>
-    <hyperlink ref="E121" r:id="rId13" xr:uid="{191E3D3C-8019-4B5F-89D1-AD98DE3FEC85}"/>
-    <hyperlink ref="E122" r:id="rId14" xr:uid="{4468D706-DCAC-4335-BBB8-8D23A7B8113A}"/>
-    <hyperlink ref="E123" r:id="rId15" xr:uid="{B35606D9-D361-4B70-9EAB-5E1C1673A265}"/>
-    <hyperlink ref="E124" r:id="rId16" xr:uid="{FE2D7488-24E8-47DA-AC68-75CCF162D891}"/>
-    <hyperlink ref="E125" r:id="rId17" xr:uid="{668EA327-9FA6-4C4B-A27D-C676C6410C5C}"/>
-    <hyperlink ref="E126" r:id="rId18" xr:uid="{5305542D-BFA1-4262-A0A9-8F110C2296ED}"/>
-    <hyperlink ref="E127" r:id="rId19" xr:uid="{533C5551-0636-4089-860C-DDB4AEC67D87}"/>
-    <hyperlink ref="E128" r:id="rId20" xr:uid="{DC2309EF-E019-4D17-B151-6C0F5089C367}"/>
-    <hyperlink ref="E129" r:id="rId21" xr:uid="{1E23C0D5-0121-4EE8-BBD0-25D7229442F1}"/>
-    <hyperlink ref="E130" r:id="rId22" xr:uid="{C6DAB9B8-3D5B-4EB1-B4AB-023AB06A9056}"/>
-    <hyperlink ref="E131" r:id="rId23" xr:uid="{552A7542-18FA-4651-A634-A3F5D8782400}"/>
-    <hyperlink ref="E132" r:id="rId24" xr:uid="{27D535E8-0BF9-4AA6-A168-AD9547C11313}"/>
-    <hyperlink ref="E133" r:id="rId25" xr:uid="{19C2B740-42BA-40C6-83EF-3346A394BCD8}"/>
-    <hyperlink ref="E134" r:id="rId26" xr:uid="{AC34B4D0-A3E3-4FFA-A6AC-D607697336B7}"/>
+    <hyperlink ref="E67" r:id="rId2" xr:uid="{261F349E-E7C2-458F-968C-1F8196157362}"/>
+    <hyperlink ref="E69" r:id="rId3" xr:uid="{C26419DC-D86F-41C4-A683-C22CBF5906E6}"/>
+    <hyperlink ref="E72" r:id="rId4" xr:uid="{87CBCF8B-3E73-4CBD-85EE-5F318705D18F}"/>
+    <hyperlink ref="E73" r:id="rId5" xr:uid="{5571D6E2-70CB-4EBF-B860-9A9ECDF1312F}"/>
+    <hyperlink ref="E76" r:id="rId6" xr:uid="{15F167E4-4CEB-4441-82E0-15FF6BBFD31B}"/>
+    <hyperlink ref="E114" r:id="rId7" xr:uid="{8BDAA363-F827-428B-B8D6-131309F1B941}"/>
+    <hyperlink ref="E113" r:id="rId8" xr:uid="{5BE382FB-260C-4AC3-8517-4A1F30E6A15D}"/>
+    <hyperlink ref="E112" r:id="rId9" xr:uid="{A8E938AC-18CF-4E97-926C-ACB232C925A4}"/>
+    <hyperlink ref="E115" r:id="rId10" xr:uid="{ECEE958D-C3F4-4F60-85B7-F7071A4C2EF2}"/>
+    <hyperlink ref="E118" r:id="rId11" xr:uid="{2079335D-5610-468B-9944-89EA4A862BFB}"/>
+    <hyperlink ref="E130" r:id="rId12" xr:uid="{2B33FEDD-CC68-4BCF-8E66-C4C3E92F753A}"/>
+    <hyperlink ref="E131" r:id="rId13" xr:uid="{191E3D3C-8019-4B5F-89D1-AD98DE3FEC85}"/>
+    <hyperlink ref="E132" r:id="rId14" xr:uid="{4468D706-DCAC-4335-BBB8-8D23A7B8113A}"/>
+    <hyperlink ref="E133" r:id="rId15" xr:uid="{B35606D9-D361-4B70-9EAB-5E1C1673A265}"/>
+    <hyperlink ref="E134" r:id="rId16" xr:uid="{FE2D7488-24E8-47DA-AC68-75CCF162D891}"/>
+    <hyperlink ref="E135" r:id="rId17" xr:uid="{668EA327-9FA6-4C4B-A27D-C676C6410C5C}"/>
+    <hyperlink ref="E136" r:id="rId18" xr:uid="{5305542D-BFA1-4262-A0A9-8F110C2296ED}"/>
+    <hyperlink ref="E137" r:id="rId19" xr:uid="{533C5551-0636-4089-860C-DDB4AEC67D87}"/>
+    <hyperlink ref="E138" r:id="rId20" xr:uid="{DC2309EF-E019-4D17-B151-6C0F5089C367}"/>
+    <hyperlink ref="E139" r:id="rId21" xr:uid="{1E23C0D5-0121-4EE8-BBD0-25D7229442F1}"/>
+    <hyperlink ref="E140" r:id="rId22" xr:uid="{C6DAB9B8-3D5B-4EB1-B4AB-023AB06A9056}"/>
+    <hyperlink ref="E141" r:id="rId23" xr:uid="{552A7542-18FA-4651-A634-A3F5D8782400}"/>
+    <hyperlink ref="E142" r:id="rId24" xr:uid="{27D535E8-0BF9-4AA6-A168-AD9547C11313}"/>
+    <hyperlink ref="E143" r:id="rId25" xr:uid="{19C2B740-42BA-40C6-83EF-3346A394BCD8}"/>
+    <hyperlink ref="E144" r:id="rId26" xr:uid="{AC34B4D0-A3E3-4FFA-A6AC-D607697336B7}"/>
+    <hyperlink ref="E154" r:id="rId27" xr:uid="{3A946A80-40CE-4FDF-A9BF-8BCE4B741658}"/>
+    <hyperlink ref="E155" r:id="rId28" xr:uid="{2A8D532E-B5E7-46F7-A62A-BD8CB9403C1B}"/>
+    <hyperlink ref="E156" r:id="rId29" xr:uid="{B85450E6-6A1B-4B2B-BCAB-C8259CB5687A}"/>
+    <hyperlink ref="E65" r:id="rId30" xr:uid="{03977A02-AF43-4AFE-9CF1-F5D438AE702F}"/>
+    <hyperlink ref="E66" r:id="rId31" xr:uid="{40F081CD-A612-4621-B1A4-A4FB4E764FC3}"/>
+    <hyperlink ref="E68" r:id="rId32" xr:uid="{D7E7DC2A-8114-45C6-8473-888E262945FD}"/>
+    <hyperlink ref="E70" r:id="rId33" xr:uid="{5DBCC750-9616-4DBD-8924-D653FA2E9612}"/>
+    <hyperlink ref="E71" r:id="rId34" xr:uid="{374CB946-CAC3-4EF0-BE72-64E85B13343C}"/>
+    <hyperlink ref="E74" r:id="rId35" xr:uid="{A0E8981E-F481-43C3-B5B8-557B5D1E0CFB}"/>
+    <hyperlink ref="E75" r:id="rId36" xr:uid="{9638E6A6-6FB6-43FC-85F2-B945633947A7}"/>
+    <hyperlink ref="E169" r:id="rId37" xr:uid="{38BA26B5-3ABE-402C-AE76-9AE4993DCBCF}"/>
+    <hyperlink ref="E171" r:id="rId38" xr:uid="{A1F926AE-3775-41C8-8440-998501DCBDCA}"/>
+    <hyperlink ref="E172" r:id="rId39" xr:uid="{C3ED6CB7-12C5-4A4D-832D-4D1CC9192F50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -3815,6 +4600,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F45CFC1A9F8F1248A755BE7582AA3921" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="97b02210842c2972656ccafd147651b4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dc91f6a9-9508-4660-847e-353b3e589d4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e275afa972a388aad49b24475393c30b" ns3:_="">
     <xsd:import namespace="dc91f6a9-9508-4660-847e-353b3e589d4b"/>
@@ -3960,23 +4754,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{505FBD4D-65EC-4B27-A52F-76355ECE2CA9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEAE25E7-CCBE-4B6B-9F52-D7E6CA599853}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FC45B07-A989-422D-A51D-0E1C5A464C67}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FC45B07-A989-422D-A51D-0E1C5A464C67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEAE25E7-CCBE-4B6B-9F52-D7E6CA599853}"/>
 </file>